--- a/data/published/2016_SealeCarlisle_Mickes/testOutput.xlsx
+++ b/data/published/2016_SealeCarlisle_Mickes/testOutput.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="10640" yWindow="8780" windowWidth="33100" windowHeight="19140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9920" yWindow="800" windowWidth="33100" windowHeight="19140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -448,8 +448,8 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -467,62 +467,62 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>published_SealeCarlisle_Mickes2016()</t>
+          <t>published_SealeCarlisle_Mickes_2016()</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>published_SealeCarlisle_Mickes2016()</t>
+          <t>published_SealeCarlisle_Mickes_2016()</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>published_SealeCarlisle_Mickes2016()</t>
+          <t>published_SealeCarlisle_Mickes_2016()</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>published_SealeCarlisle_Mickes2016()</t>
+          <t>published_SealeCarlisle_Mickes_2016()</t>
         </is>
       </c>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>published_SealeCarlisle_Mickes2016()</t>
+          <t>published_SealeCarlisle_Mickes_2016()</t>
         </is>
       </c>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>published_SealeCarlisle_Mickes2016()</t>
+          <t>published_SealeCarlisle_Mickes_2016()</t>
         </is>
       </c>
       <c r="H1" s="3" t="inlineStr">
         <is>
-          <t>published_SealeCarlisle_Mickes2016()</t>
+          <t>published_SealeCarlisle_Mickes_2016()</t>
         </is>
       </c>
       <c r="I1" s="3" t="inlineStr">
         <is>
-          <t>published_SealeCarlisle_Mickes2016()</t>
+          <t>published_SealeCarlisle_Mickes_2016()</t>
         </is>
       </c>
       <c r="J1" s="3" t="inlineStr">
         <is>
-          <t>published_SealeCarlisle_Mickes2016()</t>
+          <t>published_SealeCarlisle_Mickes_2016()</t>
         </is>
       </c>
       <c r="K1" s="3" t="inlineStr">
         <is>
-          <t>published_SealeCarlisle_Mickes2016()</t>
+          <t>published_SealeCarlisle_Mickes_2016()</t>
         </is>
       </c>
       <c r="L1" s="3" t="inlineStr">
         <is>
-          <t>published_SealeCarlisle_Mickes2016()</t>
+          <t>published_SealeCarlisle_Mickes_2016()</t>
         </is>
       </c>
       <c r="M1" s="3" t="inlineStr">
         <is>
-          <t>published_SealeCarlisle_Mickes2016()</t>
+          <t>published_SealeCarlisle_Mickes_2016()</t>
         </is>
       </c>
     </row>
@@ -935,40 +935,40 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9">
@@ -1017,6 +1017,9 @@
       <c r="L10" t="n">
         <v>0</v>
       </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1057,6 +1060,9 @@
       <c r="L11" t="n">
         <v>1</v>
       </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1065,37 +1071,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.171182441554958</v>
+        <v>0.953009965085633</v>
       </c>
       <c r="C12" t="n">
-        <v>1.19243162542901</v>
+        <v>0.7776588771986843</v>
       </c>
       <c r="D12" t="n">
-        <v>1.351738337145242</v>
+        <v>1.121618296753518</v>
       </c>
       <c r="E12" t="n">
-        <v>1.327820344424073</v>
+        <v>1.150583681224886</v>
       </c>
       <c r="F12" t="n">
-        <v>1.475006516700922</v>
+        <v>1.231709362179236</v>
       </c>
       <c r="G12" t="n">
-        <v>1.547603344083578</v>
+        <v>1.143291512578541</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4744952223161579</v>
+        <v>0.5375184391874372</v>
       </c>
       <c r="I12" t="n">
-        <v>0.389526366019283</v>
+        <v>-0.3642160631419081</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5600500989831869</v>
+        <v>0.6600787093677851</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3824896351960733</v>
+        <v>0.5801070332861928</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4969889948316015</v>
+        <v>0.6729618140300649</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.01407251270717557</v>
       </c>
     </row>
     <row r="13">
@@ -1108,35 +1117,38 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8928866131437521</v>
+        <v>1.127821905398526</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9773712447505267</v>
+        <v>0.9199461496706471</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1.173239313649444</v>
+        <v>1.776505106811773</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1.292037899940296</v>
+        <v>1.374579496322406</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1.365772429357789</v>
+        <v>1.098835321228145</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
+      <c r="M13" t="n">
+        <v>1.861010583620925</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1145,38 +1157,41 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3013829198951284</v>
+        <v>0.5993659501931323</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1034698496111932</v>
+        <v>0.748789126528651</v>
       </c>
       <c r="D14" t="n">
         <v>0.1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09337111425978248</v>
+        <v>0.1112237800567955</v>
       </c>
       <c r="F14" t="n">
         <v>0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09841620941929471</v>
+        <v>0.3973144294177789</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3204169312788271</v>
+        <v>0.6282142956420385</v>
       </c>
       <c r="I14" t="n">
-        <v>0.103239255167368</v>
+        <v>0.9747348920829069</v>
       </c>
       <c r="J14" t="n">
         <v>0.1</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1019802536179236</v>
+        <v>0.103650767122688</v>
       </c>
       <c r="L14" t="n">
         <v>0.1</v>
       </c>
+      <c r="M14" t="n">
+        <v>0.1746288697009076</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1185,38 +1200,41 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3013829198951284</v>
+        <v>0.5993659501931323</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1034698496111932</v>
+        <v>0.748789126528651</v>
       </c>
       <c r="D15" t="n">
         <v>0.1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09337111425978248</v>
+        <v>0.1112237800567955</v>
       </c>
       <c r="F15" t="n">
         <v>0.1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09841620941929471</v>
+        <v>0.3973144294177789</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3204169312788271</v>
+        <v>0.6282142956420385</v>
       </c>
       <c r="I15" t="n">
-        <v>0.103239255167368</v>
+        <v>0.9747348920829069</v>
       </c>
       <c r="J15" t="n">
         <v>0.1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1019802536179236</v>
+        <v>0.103650767122688</v>
       </c>
       <c r="L15" t="n">
         <v>0.1</v>
       </c>
+      <c r="M15" t="n">
+        <v>0.1746288697009076</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1225,37 +1243,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.154451908792708</v>
+        <v>0.9067475055770424</v>
       </c>
       <c r="C16" t="n">
-        <v>1.216314049597845</v>
+        <v>0.7073455325662255</v>
       </c>
       <c r="D16" t="n">
-        <v>1.167386358049371</v>
+        <v>1.129630611220153</v>
       </c>
       <c r="E16" t="n">
-        <v>1.076570204844096</v>
+        <v>1.127212091137473</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1537494338857341</v>
+        <v>-0.2089138581673959</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.233660661637466</v>
+        <v>-0.5632448066951075</v>
       </c>
       <c r="H16" t="n">
-        <v>1.026268432330733</v>
+        <v>0.7780225386402866</v>
       </c>
       <c r="I16" t="n">
-        <v>1.267874809671533</v>
+        <v>-0.145488269599286</v>
       </c>
       <c r="J16" t="n">
-        <v>1.200356137369956</v>
+        <v>1.204918165031108</v>
       </c>
       <c r="K16" t="n">
-        <v>1.272094552367475</v>
+        <v>1.208808097920102</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1390654042617944</v>
+        <v>-1.387310434947287</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-1.917742150994245</v>
       </c>
     </row>
     <row r="17">
@@ -1265,37 +1286,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.471239766397706</v>
+        <v>1.255025879125317</v>
       </c>
       <c r="C17" t="n">
-        <v>1.48675331643189</v>
+        <v>1.092659059889359</v>
       </c>
       <c r="D17" t="n">
-        <v>1.381908895347923</v>
+        <v>1.34817839950626</v>
       </c>
       <c r="E17" t="n">
-        <v>1.382154739692122</v>
+        <v>1.342874398448204</v>
       </c>
       <c r="F17" t="n">
-        <v>1.647291139634329</v>
+        <v>0.893542185201268</v>
       </c>
       <c r="G17" t="n">
-        <v>1.546302609011371</v>
+        <v>0.9809932955114222</v>
       </c>
       <c r="H17" t="n">
-        <v>1.400816747354841</v>
+        <v>1.123397300377889</v>
       </c>
       <c r="I17" t="n">
-        <v>1.533891531460465</v>
+        <v>0.2977463889627643</v>
       </c>
       <c r="J17" t="n">
-        <v>1.37415200820278</v>
+        <v>1.405400600332938</v>
       </c>
       <c r="K17" t="n">
-        <v>1.55608035091384</v>
+        <v>1.410664189808435</v>
       </c>
       <c r="L17" t="n">
-        <v>1.68177028494593</v>
+        <v>0.006799460158181626</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.3480546926386464</v>
       </c>
     </row>
     <row r="18">
@@ -1305,37 +1329,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.891838001410345</v>
+        <v>1.692570742206978</v>
       </c>
       <c r="C18" t="n">
-        <v>1.892728439461402</v>
+        <v>1.575214513017285</v>
       </c>
       <c r="D18" t="n">
-        <v>1.736129265411203</v>
+        <v>1.654552705465607</v>
       </c>
       <c r="E18" t="n">
-        <v>1.658913362697468</v>
+        <v>1.644304073980964</v>
       </c>
       <c r="F18" t="n">
-        <v>2.945326345477856</v>
+        <v>2.248029943835796</v>
       </c>
       <c r="G18" t="n">
-        <v>2.76837032846594</v>
+        <v>2.901653298507984</v>
       </c>
       <c r="H18" t="n">
-        <v>1.754082621450148</v>
+        <v>1.503108204135144</v>
       </c>
       <c r="I18" t="n">
-        <v>1.83965532478007</v>
+        <v>0.784139537099938</v>
       </c>
       <c r="J18" t="n">
-        <v>1.60664585730717</v>
+        <v>1.650978452184148</v>
       </c>
       <c r="K18" t="n">
-        <v>1.806044728798251</v>
+        <v>1.658594845080158</v>
       </c>
       <c r="L18" t="n">
-        <v>2.924523538013964</v>
+        <v>1.52154530098662</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.381200906675618</v>
       </c>
     </row>
     <row r="19">
@@ -1429,37 +1456,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>724</v>
       </c>
       <c r="D31" t="n">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="G31" t="n">
-        <v>20</v>
+        <v>464</v>
       </c>
       <c r="H31" t="n">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="I31" t="n">
-        <v>20</v>
+        <v>1062</v>
       </c>
       <c r="J31" t="n">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="K31" t="n">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="L31" t="n">
-        <v>20</v>
+        <v>145</v>
+      </c>
+      <c r="M31" t="n">
+        <v>622</v>
       </c>
     </row>
     <row r="32">
@@ -1469,37 +1499,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.95909107600005</v>
+        <v>22.02571382600001</v>
       </c>
       <c r="C32" t="n">
-        <v>2.494706223000094</v>
+        <v>63.56187097</v>
       </c>
       <c r="D32" t="n">
-        <v>5.569847294999818</v>
+        <v>27.50678445099999</v>
       </c>
       <c r="E32" t="n">
-        <v>5.263549157999933</v>
+        <v>50.04007657299996</v>
       </c>
       <c r="F32" t="n">
-        <v>6.439688132000128</v>
+        <v>32.13445646499997</v>
       </c>
       <c r="G32" t="n">
-        <v>6.182175817999905</v>
+        <v>138.340741329</v>
       </c>
       <c r="H32" t="n">
-        <v>1.698608062000176</v>
+        <v>30.75921299399999</v>
       </c>
       <c r="I32" t="n">
-        <v>2.12024180100002</v>
+        <v>104.37603606</v>
       </c>
       <c r="J32" t="n">
-        <v>4.744455126000048</v>
+        <v>25.75082794599996</v>
       </c>
       <c r="K32" t="n">
-        <v>4.946138464999876</v>
+        <v>57.16356707</v>
       </c>
       <c r="L32" t="n">
-        <v>5.543666325000004</v>
+        <v>41.71163314900002</v>
+      </c>
+      <c r="M32" t="n">
+        <v>188.551533407</v>
       </c>
     </row>
     <row r="33">
@@ -1509,37 +1542,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>15.63466837129255</v>
+        <v>5.355031163638405</v>
       </c>
       <c r="C33" t="n">
-        <v>16.20725505724994</v>
+        <v>4.519964291524476</v>
       </c>
       <c r="D33" t="n">
-        <v>27.17860020376286</v>
+        <v>4.508240829246347</v>
       </c>
       <c r="E33" t="n">
-        <v>48.66822566145096</v>
+        <v>4.079082463458903</v>
       </c>
       <c r="F33" t="n">
-        <v>87.54310575774785</v>
+        <v>22.45858620481512</v>
       </c>
       <c r="G33" t="n">
-        <v>97.48419613223281</v>
+        <v>6.216865212911184</v>
       </c>
       <c r="H33" t="n">
-        <v>42.50614910014578</v>
+        <v>9.885559853755391</v>
       </c>
       <c r="I33" t="n">
-        <v>29.63766572594744</v>
+        <v>3.256260019285656</v>
       </c>
       <c r="J33" t="n">
-        <v>12.17594545214885</v>
+        <v>4.311092760620083</v>
       </c>
       <c r="K33" t="n">
-        <v>58.83961484687224</v>
+        <v>3.866853408099811</v>
       </c>
       <c r="L33" t="n">
-        <v>338.7326901024794</v>
+        <v>23.91764322350723</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.520620649975461</v>
       </c>
     </row>
     <row r="34">
@@ -1581,6 +1617,9 @@
       <c r="L34" t="n">
         <v>5</v>
       </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1589,37 +1628,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.908667092823137</v>
+        <v>1.338757790909601</v>
       </c>
       <c r="C35" t="n">
-        <v>5.402418352416647</v>
+        <v>1.506654763841492</v>
       </c>
       <c r="D35" t="n">
-        <v>5.435720040752572</v>
+        <v>0.9016481658492694</v>
       </c>
       <c r="E35" t="n">
-        <v>16.22274188715032</v>
+        <v>1.359694154486301</v>
       </c>
       <c r="F35" t="n">
-        <v>17.50862115154957</v>
+        <v>4.491717240963024</v>
       </c>
       <c r="G35" t="n">
-        <v>32.4947320440776</v>
+        <v>2.072288404303728</v>
       </c>
       <c r="H35" t="n">
-        <v>10.62653727503644</v>
+        <v>2.471389963438848</v>
       </c>
       <c r="I35" t="n">
-        <v>9.879221908649145</v>
+        <v>1.085420006428552</v>
       </c>
       <c r="J35" t="n">
-        <v>2.435189090429769</v>
+        <v>0.8622185521240165</v>
       </c>
       <c r="K35" t="n">
-        <v>19.61320494895741</v>
+        <v>1.28895113603327</v>
       </c>
       <c r="L35" t="n">
-        <v>67.74653802049588</v>
+        <v>4.783528644701446</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.5068735499918203</v>
       </c>
     </row>
     <row r="36">
@@ -1668,6 +1710,9 @@
       <c r="L37" t="n">
         <v>1057</v>
       </c>
+      <c r="M37" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1708,6 +1753,9 @@
       <c r="L38" t="n">
         <v>503</v>
       </c>
+      <c r="M38" t="n">
+        <v>503</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1748,6 +1796,9 @@
       <c r="L39" t="n">
         <v>554</v>
       </c>
+      <c r="M39" t="n">
+        <v>554</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1788,6 +1839,9 @@
       <c r="L40" t="n">
         <v>0.1985559566787004</v>
       </c>
+      <c r="M40" t="n">
+        <v>0.1985559566787004</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1828,6 +1882,9 @@
       <c r="L41" t="n">
         <v>0.07797658493483543</v>
       </c>
+      <c r="M41" t="n">
+        <v>0.07797658493483543</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1868,6 +1925,9 @@
       <c r="L42" t="n">
         <v>0.6004743295521401</v>
       </c>
+      <c r="M42" t="n">
+        <v>0.6004743295521401</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1906,6 +1966,9 @@
         <v>0.009170723163794857</v>
       </c>
       <c r="L43" t="n">
+        <v>0.009170723163794857</v>
+      </c>
+      <c r="M43" t="n">
         <v>0.009170723163794857</v>
       </c>
     </row>
